--- a/src/test/excelFiles/results.xlsx
+++ b/src/test/excelFiles/results.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\ShortVideoProjectPractice\src\test\excelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0248548-1E4F-4E5E-B24A-038B492E2EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Integration Code</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>myName</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +357,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/excelFiles/results.xlsx
+++ b/src/test/excelFiles/results.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\ShortVideoProjectPractice\src\test\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0248548-1E4F-4E5E-B24A-038B492E2EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0966BCBE-9F92-41FD-96EE-31DD2522B602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,27 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>Integration Code</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>myName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+  <si>
+    <t>create-a-country;country-creating</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>verify-release-notes;release-notes</t>
+  </si>
+  <si>
+    <t>creating-city;city-creation;;2</t>
+  </si>
+  <si>
+    <t>creating-city;city-creation;;3</t>
+  </si>
+  <si>
+    <t>creating-city;city-creation;;4</t>
+  </si>
+  <si>
+    <t>creating-exam;exam-creation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,9 +82,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,39 +364,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.88671875" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
